--- a/larl items.xlsx
+++ b/larl items.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DE3C1C-BB43-48FE-A638-748F48DB605D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D88371-5E8F-44A6-9118-9FB99AD30A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21864" windowHeight="9648" activeTab="1" xr2:uid="{A206B69F-C184-4149-9E3C-8B907E09B399}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21864" windowHeight="9648" xr2:uid="{A206B69F-C184-4149-9E3C-8B907E09B399}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6096" activeTab="1" xr2:uid="{A5A9C77F-CD69-49EE-9125-DC84C28032DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="91">
   <si>
     <t xml:space="preserve">    I0</t>
   </si>
@@ -231,22 +231,70 @@
     <t>$</t>
   </si>
   <si>
-    <t>&amp; rel + *</t>
-  </si>
-  <si>
     <t>) + *</t>
   </si>
   <si>
     <t>+ *</t>
   </si>
   <si>
-    <t>, + * )</t>
-  </si>
-  <si>
     <t>&amp; $</t>
   </si>
   <si>
-    <t>&amp; rel + * $</t>
+    <t>Propagate to</t>
+  </si>
+  <si>
+    <t>rel + *</t>
+  </si>
+  <si>
+    <t>INIT</t>
+  </si>
+  <si>
+    <t>rel + * ) ,</t>
+  </si>
+  <si>
+    <t>+ * ,</t>
+  </si>
+  <si>
+    <t>rel ) + * ,</t>
+  </si>
+  <si>
+    <t>) rel + * ,</t>
+  </si>
+  <si>
+    <t>rel + * ) , &amp;</t>
+  </si>
+  <si>
+    <t>+ * &amp;</t>
+  </si>
+  <si>
+    <t>) &amp;</t>
+  </si>
+  <si>
+    <t>+ * , &amp; )</t>
+  </si>
+  <si>
+    <t>rel ) + * , &amp;</t>
+  </si>
+  <si>
+    <t>rel + * ) , &amp; $</t>
+  </si>
+  <si>
+    <t>+ * &amp; $</t>
+  </si>
+  <si>
+    <t>) &amp; $</t>
+  </si>
+  <si>
+    <t>+ * , &amp; ) $</t>
+  </si>
+  <si>
+    <t>) rel + * , &amp;</t>
+  </si>
+  <si>
+    <t>rel ) + * , &amp; $</t>
+  </si>
+  <si>
+    <t>) rel + * , &amp; $</t>
   </si>
 </sst>
 </file>
@@ -262,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +342,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -575,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -586,22 +645,29 @@
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="3.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -611,8 +677,11 @@
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -622,8 +691,11 @@
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -633,83 +705,86 @@
       <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -717,62 +792,77 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -780,17 +870,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -798,17 +888,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -824,8 +914,11 @@
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -839,7 +932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -853,7 +946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -867,7 +960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -881,7 +974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -895,17 +988,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -915,8 +1008,11 @@
       <c r="C39" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -926,8 +1022,11 @@
       <c r="C40" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -937,8 +1036,11 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -948,8 +1050,11 @@
       <c r="C42" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -963,7 +1068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -977,7 +1082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -991,7 +1096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1019,25 +1124,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1050,8 +1158,11 @@
       <c r="D51" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1064,8 +1175,11 @@
       <c r="D52" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1192,11 @@
       <c r="D53" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F53" s="4">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1209,11 @@
       <c r="D54" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1106,26 +1226,32 @@
       <c r="D55" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1138,8 +1264,11 @@
       <c r="D59" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1152,8 +1281,11 @@
       <c r="D60" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1166,8 +1298,11 @@
       <c r="D61" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1180,8 +1315,11 @@
       <c r="D62" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1194,26 +1332,32 @@
       <c r="D63" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1370,11 @@
       <c r="D67" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1240,8 +1387,11 @@
       <c r="D68" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1254,8 +1404,11 @@
       <c r="D69" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1268,8 +1421,11 @@
       <c r="D70" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1282,26 +1438,32 @@
       <c r="D71" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -1311,8 +1473,11 @@
       <c r="C75" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -1322,8 +1487,11 @@
       <c r="C76" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1339,8 +1507,11 @@
       <c r="E77" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1356,8 +1527,11 @@
       <c r="E78" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1373,8 +1547,11 @@
       <c r="E79" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -1390,8 +1567,11 @@
       <c r="E80" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1407,52 +1587,64 @@
       <c r="E81" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
@@ -1460,25 +1652,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>43</v>
       </c>
@@ -1486,33 +1681,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
@@ -1520,33 +1721,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>47</v>
       </c>
@@ -1554,51 +1761,60 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -1606,41 +1822,50 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
@@ -1648,17 +1873,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -1666,41 +1891,50 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>36</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>37</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -1716,8 +1950,11 @@
       <c r="E126" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -1733,8 +1970,11 @@
       <c r="E127" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -1750,8 +1990,11 @@
       <c r="E128" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -1767,8 +2010,11 @@
       <c r="E129" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -1784,18 +2030,21 @@
       <c r="E130" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>60</v>
       </c>
@@ -1810,187 +2059,1085 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D21E3-4820-46BA-9E40-CCB743A0E598}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="G37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
